--- a/工作计划_Chesley.xlsx
+++ b/工作计划_Chesley.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="2014-11-02" sheetId="1" r:id="rId1"/>
+    <sheet name="2014-11-23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>本周任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下周计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +35,18 @@
   </si>
   <si>
     <t>程序 Chesley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外地图点击后路线显示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换聊天图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加卡框，攻击力生命值UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,33 +433,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="2" max="2" width="83.875" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1">
+    <row r="1" spans="1:4" ht="34.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -460,122 +466,113 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4" ht="15.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4" ht="15.95" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4" ht="15.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4" ht="15.95" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4" ht="15.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4" ht="15.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4" ht="15.95" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4" ht="15.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4" ht="15.95" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4" ht="15.95" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
